--- a/Code/Results/Cases/Case_4_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.52384012001083</v>
+        <v>17.2155782130025</v>
       </c>
       <c r="C2">
-        <v>15.81502203834902</v>
+        <v>9.265561133906502</v>
       </c>
       <c r="D2">
-        <v>7.133771825653537</v>
+        <v>6.012369528219663</v>
       </c>
       <c r="E2">
-        <v>7.101507948910858</v>
+        <v>10.72001598602268</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.07040792955898</v>
+        <v>47.36080490319004</v>
       </c>
       <c r="H2">
-        <v>13.76951135399122</v>
+        <v>18.50961994386905</v>
       </c>
       <c r="I2">
-        <v>21.40588942726406</v>
+        <v>28.44064089923697</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.432715386183391</v>
+        <v>10.23932118325357</v>
       </c>
       <c r="M2">
-        <v>12.54014552423148</v>
+        <v>15.93095022874076</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.01547589553876</v>
+        <v>16.79327670044246</v>
       </c>
       <c r="C3">
-        <v>14.79771486826916</v>
+        <v>8.738709156970289</v>
       </c>
       <c r="D3">
-        <v>6.625749546325384</v>
+        <v>5.899378627280349</v>
       </c>
       <c r="E3">
-        <v>7.103465683542422</v>
+        <v>10.72313299291434</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>44.99018883426572</v>
+        <v>47.01949507957875</v>
       </c>
       <c r="H3">
-        <v>13.4928624099616</v>
+        <v>18.51745687564921</v>
       </c>
       <c r="I3">
-        <v>21.09723739862123</v>
+        <v>28.47476958243126</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.348008274918454</v>
+        <v>10.25008044792773</v>
       </c>
       <c r="M3">
-        <v>11.95173043193507</v>
+        <v>15.85688236496242</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03935280590097</v>
+        <v>16.53297367771291</v>
       </c>
       <c r="C4">
-        <v>14.14226419341308</v>
+        <v>8.396896010779011</v>
       </c>
       <c r="D4">
-        <v>6.297958752057696</v>
+        <v>5.830835486753257</v>
       </c>
       <c r="E4">
-        <v>7.105432319761874</v>
+        <v>10.72527031298915</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>43.72505299233465</v>
+        <v>46.82533927364572</v>
       </c>
       <c r="H4">
-        <v>13.33427369080676</v>
+        <v>18.52662893710382</v>
       </c>
       <c r="I4">
-        <v>20.92892106141353</v>
+        <v>28.50269333588268</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.299224588967147</v>
+        <v>10.2582347021799</v>
       </c>
       <c r="M4">
-        <v>11.58364003912504</v>
+        <v>15.81453004577969</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.62886085976816</v>
+        <v>16.42681468023834</v>
       </c>
       <c r="C5">
-        <v>13.86735415848736</v>
+        <v>8.253037080249044</v>
       </c>
       <c r="D5">
-        <v>6.180308369049007</v>
+        <v>5.803154326322792</v>
       </c>
       <c r="E5">
-        <v>7.106416418762038</v>
+        <v>10.726197546125</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>43.21303982960023</v>
+        <v>46.75015664519585</v>
       </c>
       <c r="H5">
-        <v>13.27242382218945</v>
+        <v>18.53145990719149</v>
       </c>
       <c r="I5">
-        <v>20.86546018772828</v>
+        <v>28.51581703704111</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.280146853734871</v>
+        <v>10.2619469057873</v>
       </c>
       <c r="M5">
-        <v>11.4321061102448</v>
+        <v>15.79807029809476</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.55992701217431</v>
+        <v>16.4091871133401</v>
       </c>
       <c r="C6">
-        <v>13.82123259696427</v>
+        <v>8.228874958317315</v>
       </c>
       <c r="D6">
-        <v>6.1608573365116</v>
+        <v>5.798574233288628</v>
       </c>
       <c r="E6">
-        <v>7.106590599914185</v>
+        <v>10.72635491230507</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.12825001133215</v>
+        <v>46.7379120980879</v>
       </c>
       <c r="H6">
-        <v>13.26231957143656</v>
+        <v>18.53232801581084</v>
       </c>
       <c r="I6">
-        <v>20.85522633839184</v>
+        <v>28.51810134328502</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.277027163122908</v>
+        <v>10.26258682493655</v>
       </c>
       <c r="M6">
-        <v>11.40685713015229</v>
+        <v>15.79538580259596</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03386843234656</v>
+        <v>16.53154208877649</v>
       </c>
       <c r="C7">
-        <v>14.13858834092932</v>
+        <v>8.394974310344191</v>
       </c>
       <c r="D7">
-        <v>6.296119140565557</v>
+        <v>5.830461099493013</v>
       </c>
       <c r="E7">
-        <v>7.10544486393249</v>
+        <v>10.72528259008966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>43.71813276716706</v>
+        <v>46.82430931580963</v>
       </c>
       <c r="H7">
-        <v>13.33342840161307</v>
+        <v>18.5266896672267</v>
       </c>
       <c r="I7">
-        <v>20.92804470807703</v>
+        <v>28.50286327402099</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.298964065473728</v>
+        <v>10.25828319011773</v>
       </c>
       <c r="M7">
-        <v>11.58160235497748</v>
+        <v>15.81430481144125</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.01403913080493</v>
+        <v>17.07027795394641</v>
       </c>
       <c r="C8">
-        <v>15.47060997854884</v>
+        <v>9.087726688622116</v>
       </c>
       <c r="D8">
-        <v>6.961860515638435</v>
+        <v>5.973261852254183</v>
       </c>
       <c r="E8">
-        <v>7.102018191351458</v>
+        <v>10.72104438818343</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>46.35090026835204</v>
+        <v>47.23996304933378</v>
       </c>
       <c r="H8">
-        <v>13.67174840702893</v>
+        <v>18.51141545156352</v>
       </c>
       <c r="I8">
-        <v>21.29494810309347</v>
+        <v>28.45095766504734</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.402833102326147</v>
+        <v>10.24270971383151</v>
       </c>
       <c r="M8">
-        <v>12.3387672911501</v>
+        <v>15.90477112288103</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.5076507703196</v>
+        <v>18.11161663913006</v>
       </c>
       <c r="C9">
-        <v>17.84180281479791</v>
+        <v>10.29954771949251</v>
       </c>
       <c r="D9">
-        <v>8.144435795853573</v>
+        <v>6.258114660993567</v>
       </c>
       <c r="E9">
-        <v>7.10185772432723</v>
+        <v>10.71450377759007</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>51.59325605392844</v>
+        <v>48.17418200662077</v>
       </c>
       <c r="H9">
-        <v>14.42719874404416</v>
+        <v>18.51617595662076</v>
       </c>
       <c r="I9">
-        <v>22.19132322900849</v>
+        <v>28.40478241164735</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.632549217874533</v>
+        <v>10.22445071041644</v>
       </c>
       <c r="M9">
-        <v>14.02517287782197</v>
+        <v>16.10635088961836</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.84764045850966</v>
+        <v>18.85851447391293</v>
       </c>
       <c r="C10">
-        <v>19.44349567040491</v>
+        <v>11.09932437679344</v>
       </c>
       <c r="D10">
-        <v>8.942714671282532</v>
+        <v>6.467977660882647</v>
       </c>
       <c r="E10">
-        <v>7.10653381893543</v>
+        <v>10.71077464972504</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>55.47920972812701</v>
+        <v>48.9284320891031</v>
       </c>
       <c r="H10">
-        <v>15.04197662096822</v>
+        <v>18.54096359784569</v>
       </c>
       <c r="I10">
-        <v>22.96949127058055</v>
+        <v>28.40515283418767</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.81783888940843</v>
+        <v>10.2185167648848</v>
       </c>
       <c r="M10">
-        <v>15.32162938151696</v>
+        <v>16.26829109680886</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.86553587698244</v>
+        <v>19.19264208369724</v>
       </c>
       <c r="C11">
-        <v>20.14344801811394</v>
+        <v>11.44338530885853</v>
       </c>
       <c r="D11">
-        <v>9.291624471568175</v>
+        <v>6.563098626168819</v>
       </c>
       <c r="E11">
-        <v>7.109916463081663</v>
+        <v>10.70931130065085</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>57.25413291597909</v>
+        <v>49.2851510365814</v>
       </c>
       <c r="H11">
-        <v>15.33554018242907</v>
+        <v>18.55687827068272</v>
       </c>
       <c r="I11">
-        <v>23.35205505565662</v>
+        <v>28.41283637215262</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.905889211060737</v>
+        <v>10.21743900230565</v>
       </c>
       <c r="M11">
-        <v>15.88634531274888</v>
+        <v>16.34475799606569</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.24452807897375</v>
+        <v>19.31822763174454</v>
       </c>
       <c r="C12">
-        <v>20.40455515305567</v>
+        <v>11.57082598523958</v>
       </c>
       <c r="D12">
-        <v>9.42179983427739</v>
+        <v>6.59903087730375</v>
       </c>
       <c r="E12">
-        <v>7.111399388596802</v>
+        <v>10.70879063621854</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>57.92743631937689</v>
+        <v>49.42208327573625</v>
       </c>
       <c r="H12">
-        <v>15.44879340926653</v>
+        <v>18.56357189938204</v>
       </c>
       <c r="I12">
-        <v>23.50125609927651</v>
+        <v>28.41683070770708</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.939789574616582</v>
+        <v>10.21726367442215</v>
       </c>
       <c r="M12">
-        <v>16.09671910110992</v>
+        <v>16.37409780968713</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.16318875723969</v>
+        <v>19.29122436838442</v>
       </c>
       <c r="C13">
-        <v>20.34849370850551</v>
+        <v>11.543506067755</v>
       </c>
       <c r="D13">
-        <v>9.393849275321815</v>
+        <v>6.591296725122977</v>
       </c>
       <c r="E13">
-        <v>7.111070651348415</v>
+        <v>10.7089012824287</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>57.78237199741621</v>
+        <v>49.39251190134267</v>
       </c>
       <c r="H13">
-        <v>15.42430787696271</v>
+        <v>18.56210064367216</v>
       </c>
       <c r="I13">
-        <v>23.4689265267073</v>
+        <v>28.41592215575377</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.932463416844666</v>
+        <v>10.21729108780144</v>
       </c>
       <c r="M13">
-        <v>16.05156352752335</v>
+        <v>16.36776221223549</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.89684388404707</v>
+        <v>19.20299365780049</v>
       </c>
       <c r="C14">
-        <v>20.165007539616</v>
+        <v>11.45392702480097</v>
       </c>
       <c r="D14">
-        <v>9.302372549090505</v>
+        <v>6.566056769469282</v>
       </c>
       <c r="E14">
-        <v>7.110034280757101</v>
+        <v>10.70926779461003</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>57.30950098871737</v>
+        <v>49.29638007050492</v>
       </c>
       <c r="H14">
-        <v>15.34481519548603</v>
+        <v>18.55741559207686</v>
       </c>
       <c r="I14">
-        <v>23.36424173648047</v>
+        <v>28.41314322826553</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.908666929397704</v>
+        <v>10.21741991490256</v>
       </c>
       <c r="M14">
-        <v>15.90372167589169</v>
+        <v>16.34716422675794</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.73286570648236</v>
+        <v>19.14882351934785</v>
       </c>
       <c r="C15">
-        <v>20.05210814436973</v>
+        <v>11.39868629731411</v>
       </c>
       <c r="D15">
-        <v>9.246089625706915</v>
+        <v>6.550584008157635</v>
       </c>
       <c r="E15">
-        <v>7.109426474821275</v>
+        <v>10.70949665214433</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>57.02001427191232</v>
+        <v>49.2377343158054</v>
       </c>
       <c r="H15">
-        <v>15.29639835700319</v>
+        <v>18.55463272790584</v>
       </c>
       <c r="I15">
-        <v>23.30069045576259</v>
+        <v>28.41158242756025</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.894164073369104</v>
+        <v>10.21752912930157</v>
       </c>
       <c r="M15">
-        <v>15.81271623823917</v>
+        <v>16.33459672579434</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.78020090730005</v>
+        <v>18.83655358514296</v>
       </c>
       <c r="C16">
-        <v>19.39718950091592</v>
+        <v>11.07644093274188</v>
       </c>
       <c r="D16">
-        <v>8.919634314283053</v>
+        <v>6.461751003467375</v>
       </c>
       <c r="E16">
-        <v>7.106339776020292</v>
+        <v>10.71087496925235</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>55.36336783488701</v>
+        <v>48.90538450133624</v>
       </c>
       <c r="H16">
-        <v>15.02307840533714</v>
+        <v>18.54001689733745</v>
       </c>
       <c r="I16">
-        <v>22.94508349540368</v>
+        <v>28.40480228837834</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.812161629341393</v>
+        <v>10.21861979898322</v>
       </c>
       <c r="M16">
-        <v>15.28423062318987</v>
+        <v>16.2633485194837</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.184002353987</v>
+        <v>18.64344559669889</v>
       </c>
       <c r="C17">
-        <v>18.98819128880962</v>
+        <v>10.87368695172762</v>
       </c>
       <c r="D17">
-        <v>8.715785732641178</v>
+        <v>6.40713831918453</v>
       </c>
       <c r="E17">
-        <v>7.104781969110221</v>
+        <v>10.71178018365154</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>54.34896444054424</v>
+        <v>48.70490963495114</v>
       </c>
       <c r="H17">
-        <v>14.85902299933236</v>
+        <v>18.53223886993806</v>
       </c>
       <c r="I17">
-        <v>22.73440196924324</v>
+        <v>28.40257086054532</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.762829937468673</v>
+        <v>10.2197039749854</v>
       </c>
       <c r="M17">
-        <v>14.95369442928833</v>
+        <v>16.22034368251675</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.83668524320982</v>
+        <v>18.53185127132874</v>
       </c>
       <c r="C18">
-        <v>18.75023644778761</v>
+        <v>10.75520828129751</v>
       </c>
       <c r="D18">
-        <v>8.597191542647693</v>
+        <v>6.375696080624008</v>
       </c>
       <c r="E18">
-        <v>7.104002660931857</v>
+        <v>10.71232277687881</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>53.76616471669848</v>
+        <v>48.59088919941023</v>
       </c>
       <c r="H18">
-        <v>14.76596466985169</v>
+        <v>18.52820180331174</v>
       </c>
       <c r="I18">
-        <v>22.61589859056507</v>
+        <v>28.40199456253956</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.734808479256314</v>
+        <v>10.22048022752345</v>
       </c>
       <c r="M18">
-        <v>14.76121247043858</v>
+        <v>16.19587312572087</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.7183272338368</v>
+        <v>18.49398153966661</v>
       </c>
       <c r="C19">
-        <v>18.6691987383186</v>
+        <v>10.71477423758458</v>
       </c>
       <c r="D19">
-        <v>8.556803627085856</v>
+        <v>6.365046237507708</v>
       </c>
       <c r="E19">
-        <v>7.103758244323701</v>
+        <v>10.71251025868789</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>53.56894984734948</v>
+        <v>48.552508111038</v>
       </c>
       <c r="H19">
-        <v>14.7346779066798</v>
+        <v>18.52690990460724</v>
       </c>
       <c r="I19">
-        <v>22.57622828197769</v>
+        <v>28.40192075431686</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.725381039414874</v>
+        <v>10.22076928379719</v>
       </c>
       <c r="M19">
-        <v>14.69563123931748</v>
+        <v>16.18763384754002</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.24792240713554</v>
+        <v>18.66405745111936</v>
       </c>
       <c r="C20">
-        <v>19.03200913739213</v>
+        <v>10.89546301133519</v>
       </c>
       <c r="D20">
-        <v>8.73762438224003</v>
+        <v>6.412955367825409</v>
       </c>
       <c r="E20">
-        <v>7.104935577478562</v>
+        <v>10.71168155181655</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>54.45688071531765</v>
+        <v>48.72611804010476</v>
       </c>
       <c r="H20">
-        <v>14.87635163727887</v>
+        <v>18.53302166048807</v>
       </c>
       <c r="I20">
-        <v>22.75655095304171</v>
+        <v>28.40273517929724</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.768044754099797</v>
+        <v>10.21957276511566</v>
       </c>
       <c r="M20">
-        <v>14.98912457522292</v>
+        <v>16.22489436306383</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.97524923319865</v>
+        <v>19.22893569116273</v>
       </c>
       <c r="C21">
-        <v>20.21900756946038</v>
+        <v>11.4803158783466</v>
       </c>
       <c r="D21">
-        <v>9.329293556834052</v>
+        <v>6.573473039134117</v>
       </c>
       <c r="E21">
-        <v>7.110333017659149</v>
+        <v>10.7091592329098</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>57.44836075416633</v>
+        <v>49.32456696427784</v>
       </c>
       <c r="H21">
-        <v>15.36810668711085</v>
+        <v>18.55877360345537</v>
       </c>
       <c r="I21">
-        <v>23.39487073688115</v>
+        <v>28.41392999861476</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.915641248639083</v>
+        <v>10.21737576073222</v>
       </c>
       <c r="M21">
-        <v>15.94723952861791</v>
+        <v>16.35320410278623</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.0666145987262</v>
+        <v>19.59257629062784</v>
       </c>
       <c r="C22">
-        <v>20.97185655061214</v>
+        <v>11.84595185131055</v>
       </c>
       <c r="D22">
-        <v>9.704674810682851</v>
+        <v>6.677851367605042</v>
       </c>
       <c r="E22">
-        <v>7.115050503572269</v>
+        <v>10.70770584895654</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>59.41051537048303</v>
+        <v>49.726422055769</v>
       </c>
       <c r="H22">
-        <v>15.70171690380185</v>
+        <v>18.57949185763827</v>
       </c>
       <c r="I22">
-        <v>23.83742161604236</v>
+        <v>28.42757047274429</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.015365011224484</v>
+        <v>10.21729657170809</v>
       </c>
       <c r="M22">
-        <v>16.55325742719533</v>
+        <v>16.43928774164049</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.48748341985828</v>
+        <v>19.3990417684854</v>
       </c>
       <c r="C23">
-        <v>20.57208076834807</v>
+        <v>11.65232498588933</v>
       </c>
       <c r="D23">
-        <v>9.505326680150398</v>
+        <v>6.622203228695057</v>
       </c>
       <c r="E23">
-        <v>7.112415784169669</v>
+        <v>10.70846370769591</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>58.36254262416914</v>
+        <v>49.51099839513898</v>
       </c>
       <c r="H23">
-        <v>15.52251063926746</v>
+        <v>18.56807854180503</v>
       </c>
       <c r="I23">
-        <v>23.59882301594833</v>
+        <v>28.41971052092451</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.961835614299305</v>
+        <v>10.21721485078747</v>
       </c>
       <c r="M23">
-        <v>16.23161256978466</v>
+        <v>16.39314609020026</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.21903835519568</v>
+        <v>18.65474060949698</v>
       </c>
       <c r="C24">
-        <v>19.01220787296946</v>
+        <v>10.88562401205327</v>
       </c>
       <c r="D24">
-        <v>8.727755493308722</v>
+        <v>6.410325616410592</v>
       </c>
       <c r="E24">
-        <v>7.104865770471116</v>
+        <v>10.7117260742117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>54.40809054831616</v>
+        <v>48.71652586447856</v>
       </c>
       <c r="H24">
-        <v>14.868513444046</v>
+        <v>18.53266640703193</v>
       </c>
       <c r="I24">
-        <v>22.74652925267703</v>
+        <v>28.40265869013431</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.765686077725758</v>
+        <v>10.2196316086669</v>
       </c>
       <c r="M24">
-        <v>14.97311425425138</v>
+        <v>16.22283620932342</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.60318379680862</v>
+        <v>17.83248548237097</v>
       </c>
       <c r="C25">
-        <v>17.22552908112297</v>
+        <v>9.98756251219223</v>
       </c>
       <c r="D25">
-        <v>7.837247290876791</v>
+        <v>6.180785506668854</v>
       </c>
       <c r="E25">
-        <v>7.101123690143789</v>
+        <v>10.71608397229829</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>50.16844393962253</v>
+        <v>47.90915989641322</v>
       </c>
       <c r="H25">
-        <v>14.21261386501265</v>
+        <v>18.51115624859378</v>
       </c>
       <c r="I25">
-        <v>21.92867660296536</v>
+        <v>28.41127677673567</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.567554759344489</v>
+        <v>10.22807580400953</v>
       </c>
       <c r="M25">
-        <v>13.52473891311382</v>
+        <v>16.0493192908594</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_244/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_244/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.2155782130025</v>
+        <v>21.52384012001085</v>
       </c>
       <c r="C2">
-        <v>9.265561133906502</v>
+        <v>15.81502203834904</v>
       </c>
       <c r="D2">
-        <v>6.012369528219663</v>
+        <v>7.133771825653559</v>
       </c>
       <c r="E2">
-        <v>10.72001598602268</v>
+        <v>7.101507948910923</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>47.36080490319004</v>
+        <v>47.0704079295592</v>
       </c>
       <c r="H2">
-        <v>18.50961994386905</v>
+        <v>13.7695113539912</v>
       </c>
       <c r="I2">
-        <v>28.44064089923697</v>
+        <v>21.40588942726415</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.23932118325357</v>
+        <v>6.432715386183439</v>
       </c>
       <c r="M2">
-        <v>15.93095022874076</v>
+        <v>12.54014552423148</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.79327670044246</v>
+        <v>20.01547589553868</v>
       </c>
       <c r="C3">
-        <v>8.738709156970289</v>
+        <v>14.79771486826906</v>
       </c>
       <c r="D3">
-        <v>5.899378627280349</v>
+        <v>6.62574954632534</v>
       </c>
       <c r="E3">
-        <v>10.72313299291434</v>
+        <v>7.103465683542488</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>47.01949507957875</v>
+        <v>44.99018883426599</v>
       </c>
       <c r="H3">
-        <v>18.51745687564921</v>
+        <v>13.4928624099617</v>
       </c>
       <c r="I3">
-        <v>28.47476958243126</v>
+        <v>21.0972373986214</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.25008044792773</v>
+        <v>6.348008274918546</v>
       </c>
       <c r="M3">
-        <v>15.85688236496242</v>
+        <v>11.95173043193513</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.53297367771291</v>
+        <v>19.039352805901</v>
       </c>
       <c r="C4">
-        <v>8.396896010779011</v>
+        <v>14.14226419341296</v>
       </c>
       <c r="D4">
-        <v>5.830835486753257</v>
+        <v>6.297958752057712</v>
       </c>
       <c r="E4">
-        <v>10.72527031298915</v>
+        <v>7.105432319762077</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>46.82533927364572</v>
+        <v>43.72505299233487</v>
       </c>
       <c r="H4">
-        <v>18.52662893710382</v>
+        <v>13.33427369080677</v>
       </c>
       <c r="I4">
-        <v>28.50269333588268</v>
+        <v>20.92892106141353</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.2582347021799</v>
+        <v>6.299224588967316</v>
       </c>
       <c r="M4">
-        <v>15.81453004577969</v>
+        <v>11.58364003912507</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.42681468023834</v>
+        <v>18.62886085976813</v>
       </c>
       <c r="C5">
-        <v>8.253037080249044</v>
+        <v>13.86735415848711</v>
       </c>
       <c r="D5">
-        <v>5.803154326322792</v>
+        <v>6.180308369048972</v>
       </c>
       <c r="E5">
-        <v>10.726197546125</v>
+        <v>7.106416418761969</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.75015664519585</v>
+        <v>43.21303982960041</v>
       </c>
       <c r="H5">
-        <v>18.53145990719149</v>
+        <v>13.27242382218943</v>
       </c>
       <c r="I5">
-        <v>28.51581703704111</v>
+        <v>20.8654601877284</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.2619469057873</v>
+        <v>6.280146853734866</v>
       </c>
       <c r="M5">
-        <v>15.79807029809476</v>
+        <v>11.43210611024482</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.4091871133401</v>
+        <v>18.55992701217439</v>
       </c>
       <c r="C6">
-        <v>8.228874958317315</v>
+        <v>13.82123259696401</v>
       </c>
       <c r="D6">
-        <v>5.798574233288628</v>
+        <v>6.160857336511589</v>
       </c>
       <c r="E6">
-        <v>10.72635491230507</v>
+        <v>7.106590599914251</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.7379120980879</v>
+        <v>43.12825001133206</v>
       </c>
       <c r="H6">
-        <v>18.53232801581084</v>
+        <v>13.26231957143653</v>
       </c>
       <c r="I6">
-        <v>28.51810134328502</v>
+        <v>20.8552263383917</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.26258682493655</v>
+        <v>6.27702716312305</v>
       </c>
       <c r="M6">
-        <v>15.79538580259596</v>
+        <v>11.40685713015228</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.53154208877649</v>
+        <v>19.03386843234658</v>
       </c>
       <c r="C7">
-        <v>8.394974310344191</v>
+        <v>14.1385883409293</v>
       </c>
       <c r="D7">
-        <v>5.830461099493013</v>
+        <v>6.29611914056552</v>
       </c>
       <c r="E7">
-        <v>10.72528259008966</v>
+        <v>7.105444863932559</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>46.82430931580963</v>
+        <v>43.71813276716725</v>
       </c>
       <c r="H7">
-        <v>18.5266896672267</v>
+        <v>13.33342840161312</v>
       </c>
       <c r="I7">
-        <v>28.50286327402099</v>
+        <v>20.9280447080771</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.25828319011773</v>
+        <v>6.298964065473833</v>
       </c>
       <c r="M7">
-        <v>15.81430481144125</v>
+        <v>11.58160235497749</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.07027795394641</v>
+        <v>21.01403913080492</v>
       </c>
       <c r="C8">
-        <v>9.087726688622116</v>
+        <v>15.47060997854894</v>
       </c>
       <c r="D8">
-        <v>5.973261852254183</v>
+        <v>6.961860515638365</v>
       </c>
       <c r="E8">
-        <v>10.72104438818343</v>
+        <v>7.102018191351458</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.23996304933378</v>
+        <v>46.35090026835221</v>
       </c>
       <c r="H8">
-        <v>18.51141545156352</v>
+        <v>13.67174840702893</v>
       </c>
       <c r="I8">
-        <v>28.45095766504734</v>
+        <v>21.29494810309353</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.24270971383151</v>
+        <v>6.402833102326075</v>
       </c>
       <c r="M8">
-        <v>15.90477112288103</v>
+        <v>12.33876729115009</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.11161663913006</v>
+        <v>24.5076507703196</v>
       </c>
       <c r="C9">
-        <v>10.29954771949251</v>
+        <v>17.84180281479775</v>
       </c>
       <c r="D9">
-        <v>6.258114660993567</v>
+        <v>8.144435795853543</v>
       </c>
       <c r="E9">
-        <v>10.71450377759007</v>
+        <v>7.101857724327163</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>48.17418200662077</v>
+        <v>51.59325605392822</v>
       </c>
       <c r="H9">
-        <v>18.51617595662076</v>
+        <v>14.42719874404412</v>
       </c>
       <c r="I9">
-        <v>28.40478241164735</v>
+        <v>22.19132322900836</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.22445071041644</v>
+        <v>6.632549217874566</v>
       </c>
       <c r="M9">
-        <v>16.10635088961836</v>
+        <v>14.02517287782198</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85851447391293</v>
+        <v>26.8476404585097</v>
       </c>
       <c r="C10">
-        <v>11.09932437679344</v>
+        <v>19.44349567040472</v>
       </c>
       <c r="D10">
-        <v>6.467977660882647</v>
+        <v>8.942714671282635</v>
       </c>
       <c r="E10">
-        <v>10.71077464972504</v>
+        <v>7.106533818935364</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>48.9284320891031</v>
+        <v>55.47920972812697</v>
       </c>
       <c r="H10">
-        <v>18.54096359784569</v>
+        <v>15.0419766209682</v>
       </c>
       <c r="I10">
-        <v>28.40515283418767</v>
+        <v>22.96949127058046</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.2185167648848</v>
+        <v>6.817838889408412</v>
       </c>
       <c r="M10">
-        <v>16.26829109680886</v>
+        <v>15.32162938151697</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.19264208369724</v>
+        <v>27.86553587698241</v>
       </c>
       <c r="C11">
-        <v>11.44338530885853</v>
+        <v>20.143448018114</v>
       </c>
       <c r="D11">
-        <v>6.563098626168819</v>
+        <v>9.291624471568143</v>
       </c>
       <c r="E11">
-        <v>10.70931130065085</v>
+        <v>7.109916463081597</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>49.2851510365814</v>
+        <v>57.25413291597923</v>
       </c>
       <c r="H11">
-        <v>18.55687827068272</v>
+        <v>15.33554018242908</v>
       </c>
       <c r="I11">
-        <v>28.41283637215262</v>
+        <v>23.35205505565666</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.21743900230565</v>
+        <v>6.905889211060694</v>
       </c>
       <c r="M11">
-        <v>16.34475799606569</v>
+        <v>15.88634531274888</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.31822763174454</v>
+        <v>28.24452807897372</v>
       </c>
       <c r="C12">
-        <v>11.57082598523958</v>
+        <v>20.40455515305574</v>
       </c>
       <c r="D12">
-        <v>6.59903087730375</v>
+        <v>9.421799834277351</v>
       </c>
       <c r="E12">
-        <v>10.70879063621854</v>
+        <v>7.111399388596803</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>49.42208327573625</v>
+        <v>57.92743631937688</v>
       </c>
       <c r="H12">
-        <v>18.56357189938204</v>
+        <v>15.44879340926661</v>
       </c>
       <c r="I12">
-        <v>28.41683070770708</v>
+        <v>23.50125609927663</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.21726367442215</v>
+        <v>6.93978957461656</v>
       </c>
       <c r="M12">
-        <v>16.37409780968713</v>
+        <v>16.09671910110991</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.29122436838442</v>
+        <v>28.16318875723969</v>
       </c>
       <c r="C13">
-        <v>11.543506067755</v>
+        <v>20.34849370850556</v>
       </c>
       <c r="D13">
-        <v>6.591296725122977</v>
+        <v>9.393849275321788</v>
       </c>
       <c r="E13">
-        <v>10.7089012824287</v>
+        <v>7.111070651348548</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>49.39251190134267</v>
+        <v>57.78237199741635</v>
       </c>
       <c r="H13">
-        <v>18.56210064367216</v>
+        <v>15.4243078769628</v>
       </c>
       <c r="I13">
-        <v>28.41592215575377</v>
+        <v>23.46892652670747</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.21729108780144</v>
+        <v>6.932463416844664</v>
       </c>
       <c r="M13">
-        <v>16.36776221223549</v>
+        <v>16.05156352752334</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.20299365780049</v>
+        <v>27.89684388404712</v>
       </c>
       <c r="C14">
-        <v>11.45392702480097</v>
+        <v>20.16500753961601</v>
       </c>
       <c r="D14">
-        <v>6.566056769469282</v>
+        <v>9.302372549090537</v>
       </c>
       <c r="E14">
-        <v>10.70926779461003</v>
+        <v>7.110034280757098</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>49.29638007050492</v>
+        <v>57.30950098871747</v>
       </c>
       <c r="H14">
-        <v>18.55741559207686</v>
+        <v>15.34481519548606</v>
       </c>
       <c r="I14">
-        <v>28.41314322826553</v>
+        <v>23.36424173648052</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.21741991490256</v>
+        <v>6.908666929397716</v>
       </c>
       <c r="M14">
-        <v>16.34716422675794</v>
+        <v>15.90372167589171</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.14882351934785</v>
+        <v>27.73286570648233</v>
       </c>
       <c r="C15">
-        <v>11.39868629731411</v>
+        <v>20.0521081443698</v>
       </c>
       <c r="D15">
-        <v>6.550584008157635</v>
+        <v>9.246089625706906</v>
       </c>
       <c r="E15">
-        <v>10.70949665214433</v>
+        <v>7.109426474821408</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>49.2377343158054</v>
+        <v>57.02001427191246</v>
       </c>
       <c r="H15">
-        <v>18.55463272790584</v>
+        <v>15.29639835700322</v>
       </c>
       <c r="I15">
-        <v>28.41158242756025</v>
+        <v>23.30069045576265</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.21752912930157</v>
+        <v>6.89416407336908</v>
       </c>
       <c r="M15">
-        <v>16.33459672579434</v>
+        <v>15.81271623823916</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.83655358514296</v>
+        <v>26.78020090730007</v>
       </c>
       <c r="C16">
-        <v>11.07644093274188</v>
+        <v>19.39718950091597</v>
       </c>
       <c r="D16">
-        <v>6.461751003467375</v>
+        <v>8.919634314283256</v>
       </c>
       <c r="E16">
-        <v>10.71087496925235</v>
+        <v>7.106339776020423</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>48.90538450133624</v>
+        <v>55.3633678348871</v>
       </c>
       <c r="H16">
-        <v>18.54001689733745</v>
+        <v>15.02307840533717</v>
       </c>
       <c r="I16">
-        <v>28.40480228837834</v>
+        <v>22.94508349540372</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.21861979898322</v>
+        <v>6.81216162934141</v>
       </c>
       <c r="M16">
-        <v>16.2633485194837</v>
+        <v>15.28423062318987</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.64344559669889</v>
+        <v>26.18400235398707</v>
       </c>
       <c r="C17">
-        <v>10.87368695172762</v>
+        <v>18.98819128880981</v>
       </c>
       <c r="D17">
-        <v>6.40713831918453</v>
+        <v>8.715785732641205</v>
       </c>
       <c r="E17">
-        <v>10.71178018365154</v>
+        <v>7.10478196911015</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>48.70490963495114</v>
+        <v>54.34896444054436</v>
       </c>
       <c r="H17">
-        <v>18.53223886993806</v>
+        <v>14.85902299933232</v>
       </c>
       <c r="I17">
-        <v>28.40257086054532</v>
+        <v>22.73440196924319</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.2197039749854</v>
+        <v>6.762829937468588</v>
       </c>
       <c r="M17">
-        <v>16.22034368251675</v>
+        <v>14.95369442928841</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.53185127132874</v>
+        <v>25.83668524320975</v>
       </c>
       <c r="C18">
-        <v>10.75520828129751</v>
+        <v>18.75023644778744</v>
       </c>
       <c r="D18">
-        <v>6.375696080624008</v>
+        <v>8.597191542647668</v>
       </c>
       <c r="E18">
-        <v>10.71232277687881</v>
+        <v>7.104002660931792</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>48.59088919941023</v>
+        <v>53.76616471669857</v>
       </c>
       <c r="H18">
-        <v>18.52820180331174</v>
+        <v>14.76596466985178</v>
       </c>
       <c r="I18">
-        <v>28.40199456253956</v>
+        <v>22.61589859056524</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.22048022752345</v>
+        <v>6.73480847925638</v>
       </c>
       <c r="M18">
-        <v>16.19587312572087</v>
+        <v>14.7612124704385</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.49398153966661</v>
+        <v>25.71832723383679</v>
       </c>
       <c r="C19">
-        <v>10.71477423758458</v>
+        <v>18.66919873831864</v>
       </c>
       <c r="D19">
-        <v>6.365046237507708</v>
+        <v>8.556803627085845</v>
       </c>
       <c r="E19">
-        <v>10.71251025868789</v>
+        <v>7.103758244323768</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>48.552508111038</v>
+        <v>53.56894984734954</v>
       </c>
       <c r="H19">
-        <v>18.52690990460724</v>
+        <v>14.7346779066798</v>
       </c>
       <c r="I19">
-        <v>28.40192075431686</v>
+        <v>22.57622828197774</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.22076928379719</v>
+        <v>6.725381039414928</v>
       </c>
       <c r="M19">
-        <v>16.18763384754002</v>
+        <v>14.69563123931746</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.66405745111936</v>
+        <v>26.24792240713555</v>
       </c>
       <c r="C20">
-        <v>10.89546301133519</v>
+        <v>19.03200913739202</v>
       </c>
       <c r="D20">
-        <v>6.412955367825409</v>
+        <v>8.737624382240066</v>
       </c>
       <c r="E20">
-        <v>10.71168155181655</v>
+        <v>7.104935577478694</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>48.72611804010476</v>
+        <v>54.45688071531782</v>
       </c>
       <c r="H20">
-        <v>18.53302166048807</v>
+        <v>14.87635163727891</v>
       </c>
       <c r="I20">
-        <v>28.40273517929724</v>
+        <v>22.75655095304175</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.21957276511566</v>
+        <v>6.76804475409984</v>
       </c>
       <c r="M20">
-        <v>16.22489436306383</v>
+        <v>14.9891245752229</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.22893569116273</v>
+        <v>27.97524923319872</v>
       </c>
       <c r="C21">
-        <v>11.4803158783466</v>
+        <v>20.21900756946043</v>
       </c>
       <c r="D21">
-        <v>6.573473039134117</v>
+        <v>9.329293556834013</v>
       </c>
       <c r="E21">
-        <v>10.7091592329098</v>
+        <v>7.110333017659149</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>49.32456696427784</v>
+        <v>57.44836075416637</v>
       </c>
       <c r="H21">
-        <v>18.55877360345537</v>
+        <v>15.36810668711083</v>
       </c>
       <c r="I21">
-        <v>28.41392999861476</v>
+        <v>23.39487073688114</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.21737576073222</v>
+        <v>6.915641248639076</v>
       </c>
       <c r="M21">
-        <v>16.35320410278623</v>
+        <v>15.94723952861796</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.59257629062784</v>
+        <v>29.06661459872614</v>
       </c>
       <c r="C22">
-        <v>11.84595185131055</v>
+        <v>20.97185655061217</v>
       </c>
       <c r="D22">
-        <v>6.677851367605042</v>
+        <v>9.704674810682745</v>
       </c>
       <c r="E22">
-        <v>10.70770584895654</v>
+        <v>7.115050503572268</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>49.726422055769</v>
+        <v>59.410515370483</v>
       </c>
       <c r="H22">
-        <v>18.57949185763827</v>
+        <v>15.70171690380185</v>
       </c>
       <c r="I22">
-        <v>28.42757047274429</v>
+        <v>23.83742161604238</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.21729657170809</v>
+        <v>7.015365011224473</v>
       </c>
       <c r="M22">
-        <v>16.43928774164049</v>
+        <v>16.55325742719534</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.3990417684854</v>
+        <v>28.48748341985839</v>
       </c>
       <c r="C23">
-        <v>11.65232498588933</v>
+        <v>20.57208076834806</v>
       </c>
       <c r="D23">
-        <v>6.622203228695057</v>
+        <v>9.505326680150421</v>
       </c>
       <c r="E23">
-        <v>10.70846370769591</v>
+        <v>7.112415784169668</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>49.51099839513898</v>
+        <v>58.36254262416924</v>
       </c>
       <c r="H23">
-        <v>18.56807854180503</v>
+        <v>15.52251063926749</v>
       </c>
       <c r="I23">
-        <v>28.41971052092451</v>
+        <v>23.59882301594833</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.21721485078747</v>
+        <v>6.961835614299305</v>
       </c>
       <c r="M23">
-        <v>16.39314609020026</v>
+        <v>16.23161256978472</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.65474060949698</v>
+        <v>26.21903835519571</v>
       </c>
       <c r="C24">
-        <v>10.88562401205327</v>
+        <v>19.01220787296958</v>
       </c>
       <c r="D24">
-        <v>6.410325616410592</v>
+        <v>8.727755493308779</v>
       </c>
       <c r="E24">
-        <v>10.7117260742117</v>
+        <v>7.10486577047125</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>48.71652586447856</v>
+        <v>54.40809054831637</v>
       </c>
       <c r="H24">
-        <v>18.53266640703193</v>
+        <v>14.86851344404596</v>
       </c>
       <c r="I24">
-        <v>28.40265869013431</v>
+        <v>22.74652925267703</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.2196316086669</v>
+        <v>6.765686077725749</v>
       </c>
       <c r="M24">
-        <v>16.22283620932342</v>
+        <v>14.97311425425141</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.83248548237097</v>
+        <v>23.60318379680863</v>
       </c>
       <c r="C25">
-        <v>9.98756251219223</v>
+        <v>17.22552908112288</v>
       </c>
       <c r="D25">
-        <v>6.180785506668854</v>
+        <v>7.83724729087692</v>
       </c>
       <c r="E25">
-        <v>10.71608397229829</v>
+        <v>7.101123690143789</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>47.90915989641322</v>
+        <v>50.16844393962252</v>
       </c>
       <c r="H25">
-        <v>18.51115624859378</v>
+        <v>14.21261386501265</v>
       </c>
       <c r="I25">
-        <v>28.41127677673567</v>
+        <v>21.92867660296535</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.22807580400953</v>
+        <v>6.567554759344524</v>
       </c>
       <c r="M25">
-        <v>16.0493192908594</v>
+        <v>13.5247389131138</v>
       </c>
       <c r="N25">
         <v>0</v>
